--- a/AutomaticInterface/automatIcnterface/one.xlsx
+++ b/AutomaticInterface/automatIcnterface/one.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18820" yWindow="1280" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="21040" yWindow="2800" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -73,14 +74,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8899/Blog/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>keyword = 这是, token = 1512353983</t>
     <rPh sb="10" eb="11">
       <t>zhe'shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword = 这是, token =1512353983</t>
+    <rPh sb="10" eb="11">
+      <t>zhe'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <rPh sb="0" eb="1">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +141,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -122,17 +182,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -407,22 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,27 +501,104 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:8000/Blog/search1"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://127.0.0.1:8000/Blog/search4"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://127.0.0.1:8000/Blog/search3"/>
+    <hyperlink ref="B3" r:id="rId4" display="http://127.0.0.1:8000/Blog/search2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AutomaticInterface/automatIcnterface/one.xlsx
+++ b/AutomaticInterface/automatIcnterface/one.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21040" yWindow="2800" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="12980" yWindow="10020" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -81,29 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/Blog/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/Blog/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/Blog/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/Blog/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword = 这是, token =1512353983</t>
-    <rPh sb="10" eb="11">
-      <t>zhe'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求方式</t>
     <rPh sb="0" eb="1">
       <t>qing'q</t>
@@ -123,6 +100,32 @@
   </si>
   <si>
     <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://steel.iask.in:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://steel.iask.in:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://steel.iask.in:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄顺耀</t>
+    <rPh sb="0" eb="1">
+      <t>h's'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿嘿</t>
+    <rPh sb="0" eb="1">
+      <t>hei'h</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,14 +480,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
@@ -501,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -515,16 +518,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -532,16 +538,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -549,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>11</v>
@@ -566,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
